--- a/src/schematics/Ard_Shield/Gerber/ScouseTom_New_Pick_and_Place.xlsx
+++ b/src/schematics/Ard_Shield/Gerber/ScouseTom_New_Pick_and_Place.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
   <si>
     <t>C1</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Top</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,10 +1210,10 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
       </c>
       <c r="G1" t="s">
         <v>84</v>

--- a/src/schematics/Ard_Shield/Gerber/ScouseTom_New_Pick_and_Place.xlsx
+++ b/src/schematics/Ard_Shield/Gerber/ScouseTom_New_Pick_and_Place.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ScouseTom_New" localSheetId="0">Sheet1!$A$2:$F$52</definedName>
+    <definedName name="ScouseTom_New_1" localSheetId="0">Sheet1!$A$2:$F$56</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -20,8 +20,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="ScouseTom_New" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Jimbles\Copy\ScouseTom\src\schematics\Ard_Shield\Gerber\ScouseTom_New.mnt" tab="0" space="1" consecutive="1">
+  <connection id="1" name="ScouseTom_New" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Jimbles\ScouseTom\src\schematics\Ard_Shield\Gerber\ScouseTom_New.mnt" tab="0" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="104">
   <si>
     <t>C1</t>
   </si>
@@ -336,12 +336,24 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,12 +897,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ScouseTom_New" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ScouseTom_New_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,7 +951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,7 +986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1180,16 +1195,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
@@ -2420,25 +2436,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B48">
-        <v>29.55</v>
+        <v>-2.65</v>
       </c>
       <c r="C48">
-        <v>30.9</v>
+        <v>39.15</v>
       </c>
       <c r="D48">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H48" t="s">
         <v>98</v>
@@ -2446,25 +2462,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B49">
-        <v>8.67</v>
+        <v>-2.25</v>
       </c>
       <c r="C49">
-        <v>31.03</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="D49">
         <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H49" t="s">
         <v>98</v>
@@ -2472,25 +2488,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B50">
-        <v>63.3</v>
+        <v>100.35</v>
       </c>
       <c r="C50">
-        <v>51.9</v>
+        <v>48.15</v>
       </c>
       <c r="D50">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H50" t="s">
         <v>98</v>
@@ -2498,25 +2514,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B51">
-        <v>50.7</v>
+        <v>100.2</v>
       </c>
       <c r="C51">
-        <v>51.9</v>
+        <v>35.1</v>
       </c>
       <c r="D51">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H51" t="s">
         <v>98</v>
@@ -2524,27 +2540,131 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B52">
-        <v>39</v>
+        <v>29.55</v>
       </c>
       <c r="C52">
-        <v>51.9</v>
+        <v>30.9</v>
       </c>
       <c r="D52">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
         <v>69</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <v>8.67</v>
+      </c>
+      <c r="C53">
+        <v>31.03</v>
+      </c>
+      <c r="D53">
+        <v>270</v>
+      </c>
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>63.3</v>
+      </c>
+      <c r="C54">
+        <v>51.9</v>
+      </c>
+      <c r="D54">
+        <v>270</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55">
+        <v>50.7</v>
+      </c>
+      <c r="C55">
+        <v>51.9</v>
+      </c>
+      <c r="D55">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
         <v>76</v>
       </c>
-      <c r="H52" t="s">
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>51.9</v>
+      </c>
+      <c r="D56">
+        <v>270</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
         <v>98</v>
       </c>
     </row>
